--- a/Documents/Chapter 01.xlsx
+++ b/Documents/Chapter 01.xlsx
@@ -11,8 +11,54 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Cot_Thu_Tu" localSheetId="0">Sheet1!$H$2:$H$21</definedName>
+    <definedName name="Months_Of_Year">Sheet1!$I$2:$I$13</definedName>
+    <definedName name="NgayNghiTrongNam">Sheet1!$L$5:$L$9</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,9 +100,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,15 +407,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>10</v>
       </c>
@@ -378,27 +429,213 @@
         <f>(B2+C2)%</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>LARGE(H2:H21,2)</f>
+        <v>19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>42736</v>
+      </c>
+      <c r="M2">
+        <f>NETWORKDAYS(L2,L3)</f>
+        <v>260</v>
+      </c>
+      <c r="N2">
+        <f>COLUMN(B2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E3">
         <f>B4^C4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>SMALL(H2:H21,3)</f>
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>43100</v>
+      </c>
+      <c r="M3">
+        <f>NETWORKDAYS(L2,L3,L5:L9)</f>
+        <v>256</v>
+      </c>
+      <c r="N3">
+        <f>NETWORKDAYS(L2,L3,NgayNghiTrongNam)</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f>4^2</f>
         <v>16</v>
       </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="E5">
+        <f>B5+C5</f>
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>42856</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="2">
+        <v>42980</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="2">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="3">
+        <v>42781</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="3">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
